--- a/Dataset/FeatureTable.xlsx
+++ b/Dataset/FeatureTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcabzsu_ucl_ac_uk/Documents/Year 3/BENG0095/BENG0095 (202324) Group Coursework Brief-20231124/code/BENG0019-group-E/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D4AC72A2-8EFA-42D3-803C-2441BD39D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA9DD5C3-340A-EE43-9962-A08C241C9DB9}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D4AC72A2-8EFA-42D3-803C-2441BD39D8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C77FEA-46CC-A04B-BC2C-50C732DA59B4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{A9A6A9E8-FDBE-47B5-9143-A5C25C2220C8}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>number_outpatient</t>
   </si>
   <si>
-    <t>Number of outpatient visits of the patient in the year preceding the encounter</t>
-  </si>
-  <si>
     <t>number_emergency</t>
   </si>
   <si>
@@ -324,6 +321,10 @@
   </si>
   <si>
     <t>diabetesMed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of outpatient visits of the patient in the year preceding the encounter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -698,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4E6DF5-5381-4133-8C05-A1A0FC4EF528}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="177" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="177" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -748,7 +749,7 @@
     </row>
     <row r="3" spans="1:6" ht="16">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -916,7 +917,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -1001,7 +1002,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1009,7 +1010,7 @@
     </row>
     <row r="18" spans="1:6" ht="32">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -1018,7 +1019,7 @@
         <v>32</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1026,7 +1027,7 @@
     </row>
     <row r="19" spans="1:6" ht="32">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -1035,7 +1036,7 @@
         <v>32</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1043,7 +1044,7 @@
     </row>
     <row r="20" spans="1:6" ht="32">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -1052,7 +1053,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F20" t="s">
         <v>16</v>
@@ -1060,16 +1061,16 @@
     </row>
     <row r="21" spans="1:6" ht="32">
       <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -1077,7 +1078,7 @@
     </row>
     <row r="22" spans="1:6" ht="32">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -1086,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s">
         <v>16</v>
@@ -1094,7 +1095,7 @@
     </row>
     <row r="23" spans="1:6" ht="16">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
@@ -1103,7 +1104,7 @@
         <v>32</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1111,7 +1112,7 @@
     </row>
     <row r="24" spans="1:6" ht="48">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
@@ -1120,7 +1121,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1128,7 +1129,7 @@
     </row>
     <row r="25" spans="1:6" ht="64">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
@@ -1137,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1145,7 +1146,7 @@
     </row>
     <row r="26" spans="1:6" ht="80">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -1154,12 +1155,12 @@
         <v>13</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="80">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -1168,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1176,7 +1177,7 @@
     </row>
     <row r="28" spans="1:6" ht="80">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -1185,7 +1186,7 @@
         <v>13</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1193,7 +1194,7 @@
     </row>
     <row r="29" spans="1:6" ht="80">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -1202,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1210,7 +1211,7 @@
     </row>
     <row r="30" spans="1:6" ht="80">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -1219,7 +1220,7 @@
         <v>13</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1227,7 +1228,7 @@
     </row>
     <row r="31" spans="1:6" ht="80">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1236,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1244,7 +1245,7 @@
     </row>
     <row r="32" spans="1:6" ht="80">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1253,7 +1254,7 @@
         <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1261,7 +1262,7 @@
     </row>
     <row r="33" spans="1:6" ht="80">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1270,7 +1271,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1278,7 +1279,7 @@
     </row>
     <row r="34" spans="1:6" ht="80">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -1287,7 +1288,7 @@
         <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1295,7 +1296,7 @@
     </row>
     <row r="35" spans="1:6" ht="80">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -1304,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1312,7 +1313,7 @@
     </row>
     <row r="36" spans="1:6" ht="80">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -1321,7 +1322,7 @@
         <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1329,7 +1330,7 @@
     </row>
     <row r="37" spans="1:6" ht="80">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -1338,7 +1339,7 @@
         <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F37" t="s">
         <v>9</v>
@@ -1346,7 +1347,7 @@
     </row>
     <row r="38" spans="1:6" ht="80">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
         <v>12</v>
@@ -1355,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1363,7 +1364,7 @@
     </row>
     <row r="39" spans="1:6" ht="80">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
@@ -1372,7 +1373,7 @@
         <v>13</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1380,7 +1381,7 @@
     </row>
     <row r="40" spans="1:6" ht="80">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
@@ -1389,7 +1390,7 @@
         <v>13</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1397,7 +1398,7 @@
     </row>
     <row r="41" spans="1:6" ht="80">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1406,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1414,7 +1415,7 @@
     </row>
     <row r="42" spans="1:6" ht="80">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1423,7 +1424,7 @@
         <v>13</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1431,7 +1432,7 @@
     </row>
     <row r="43" spans="1:6" ht="80">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1440,7 +1441,7 @@
         <v>13</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -1448,7 +1449,7 @@
     </row>
     <row r="44" spans="1:6" ht="80">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
@@ -1457,7 +1458,7 @@
         <v>13</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>9</v>
@@ -1465,7 +1466,7 @@
     </row>
     <row r="45" spans="1:6" ht="80">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
@@ -1474,7 +1475,7 @@
         <v>13</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F45" t="s">
         <v>9</v>
@@ -1482,7 +1483,7 @@
     </row>
     <row r="46" spans="1:6" ht="80">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
@@ -1491,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
         <v>9</v>
@@ -1499,7 +1500,7 @@
     </row>
     <row r="47" spans="1:6" ht="80">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
@@ -1508,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
         <v>9</v>
@@ -1516,7 +1517,7 @@
     </row>
     <row r="48" spans="1:6" ht="80">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
@@ -1525,7 +1526,7 @@
         <v>13</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -1533,16 +1534,16 @@
     </row>
     <row r="49" spans="1:6" ht="48">
       <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B49" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -1550,7 +1551,7 @@
     </row>
     <row r="50" spans="1:6" ht="32">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
@@ -1559,7 +1560,7 @@
         <v>13</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1567,16 +1568,16 @@
     </row>
     <row r="51" spans="1:6" ht="64">
       <c r="A51" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
         <v>83</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C51" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
